--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,382 +484,377 @@
     <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
   </si>
   <si>
+    <t>Observation.extension:measurementDevice.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Observation.extension:measurementDevice.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/respiratoryRateMeasDeviceVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:BodyPosition</t>
+  </si>
+  <si>
+    <t>BodyPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {observation-bodyPosition}
+</t>
+  </si>
+  <si>
+    <t>Body Position</t>
+  </si>
+  <si>
+    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
+  </si>
+  <si>
+    <t>Observation.extension:BodyPosition.id</t>
+  </si>
+  <si>
+    <t>Observation.extension:BodyPosition.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:BodyPosition.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-bodyPosition</t>
+  </si>
+  <si>
+    <t>Observation.extension:BodyPosition.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension:BodyPosition.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/bodyPositionVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:exerciseAssociation</t>
+  </si>
+  <si>
+    <t>exerciseAssociation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/ExerciseAssociationExt}
+</t>
+  </si>
+  <si>
+    <t>Exercise Association</t>
+  </si>
+  <si>
+    <t>Observation.extension:MeasurementSetting</t>
+  </si>
+  <si>
+    <t>MeasurementSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
+</t>
+  </si>
+  <si>
+    <t>Measurement setting</t>
+  </si>
+  <si>
+    <t>Observation.extension:sleepStatus</t>
+  </si>
+  <si>
+    <t>sleepStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/SleepStatusExt}
+</t>
+  </si>
+  <si>
+    <t>Sleep Status</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/respiratoryRateMeasDeviceVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:BodyPosition</t>
-  </si>
-  <si>
-    <t>BodyPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {observation-bodyPosition}
-</t>
-  </si>
-  <si>
-    <t>Body Position</t>
-  </si>
-  <si>
-    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
-  </si>
-  <si>
-    <t>Observation.extension:BodyPosition.id</t>
-  </si>
-  <si>
-    <t>Observation.extension:BodyPosition.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:BodyPosition.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-bodyPosition</t>
-  </si>
-  <si>
-    <t>Observation.extension:BodyPosition.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:BodyPosition.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/bodyPositionVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:exerciseAssociation</t>
-  </si>
-  <si>
-    <t>exerciseAssociation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/ExerciseAssociationExt}
-</t>
-  </si>
-  <si>
-    <t>Exercise Association</t>
-  </si>
-  <si>
-    <t>The exercise state associated with the measurement.</t>
-  </si>
-  <si>
-    <t>Observation.extension:MeasurementSetting</t>
-  </si>
-  <si>
-    <t>MeasurementSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
-</t>
-  </si>
-  <si>
-    <t>Measurement setting</t>
-  </si>
-  <si>
-    <t>The location or setting the subject was in when the measurement was obtained. For example, home, clinic, hospital. etc.</t>
-  </si>
-  <si>
-    <t>Observation.extension:sleepStatus</t>
-  </si>
-  <si>
-    <t>sleepStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/SleepStatusExt}
-</t>
-  </si>
-  <si>
-    <t>Sleep Status</t>
-  </si>
-  <si>
-    <t>The state of wakefulness during the measurement.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
     <t>Observation.category:VSCat.extension</t>
   </si>
   <si>
@@ -1100,7 +1095,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1225,7 +1220,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1248,7 +1243,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1304,7 +1299,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1347,7 +1342,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1581,7 +1576,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1666,7 +1661,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1708,7 +1703,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1736,7 +1731,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1816,7 +1811,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1866,7 +1861,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1899,7 +1894,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1936,7 +1931,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1958,7 +1953,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2076,7 +2071,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2426,7 +2421,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3541,7 +3536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3637,7 +3632,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3663,10 +3658,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3689,13 +3684,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3746,31 +3741,31 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3781,10 +3776,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3855,7 +3850,7 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
@@ -3864,7 +3859,7 @@
         <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3899,10 +3894,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3928,13 +3923,13 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3942,49 +3937,49 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>93</v>
@@ -4019,10 +4014,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4045,13 +4040,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4078,36 +4073,36 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>105</v>
@@ -4136,7 +4131,7 @@
         <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>180</v>
@@ -4161,13 +4156,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4216,16 +4211,16 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>105</v>
@@ -4249,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -4345,7 +4340,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>144</v>
@@ -4374,7 +4369,7 @@
         <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4397,13 +4392,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4454,31 +4449,31 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4492,7 +4487,7 @@
         <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4563,7 +4558,7 @@
         <v>141</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
@@ -4572,7 +4567,7 @@
         <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4610,7 +4605,7 @@
         <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4636,13 +4631,13 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4692,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>93</v>
@@ -4730,7 +4725,7 @@
         <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4753,13 +4748,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4798,26 +4793,26 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>105</v>
@@ -4846,7 +4841,7 @@
         <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>180</v>
@@ -4871,13 +4866,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4926,16 +4921,16 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>105</v>
@@ -4959,7 +4954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>195</v>
       </c>
@@ -4995,7 +4990,7 @@
         <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5055,7 +5050,7 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>144</v>
@@ -5079,15 +5074,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>20</v>
@@ -5109,13 +5104,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5175,7 +5170,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>144</v>
@@ -5199,15 +5194,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>20</v>
@@ -5229,13 +5224,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5295,7 +5290,7 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>144</v>
@@ -5321,14 +5316,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5350,16 +5345,16 @@
         <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -5408,7 +5403,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5443,10 +5438,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5469,17 +5464,17 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5528,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5543,19 +5538,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5563,14 +5558,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5589,17 +5584,17 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5648,7 +5643,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5663,16 +5658,16 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5683,14 +5678,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5709,16 +5704,16 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5768,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5783,30 +5778,30 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5832,16 +5827,16 @@
         <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5866,11 +5861,11 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5888,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>93</v>
@@ -5903,19 +5898,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5923,10 +5918,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5949,19 +5944,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5989,16 +5984,16 @@
         <v>117</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
@@ -6008,7 +6003,7 @@
         <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -6032,24 +6027,24 @@
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
@@ -6071,19 +6066,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -6111,10 +6106,10 @@
         <v>117</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -6132,7 +6127,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6156,10 +6151,10 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
@@ -6167,10 +6162,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6193,13 +6188,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6250,31 +6245,31 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6285,14 +6280,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6314,13 +6309,13 @@
         <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6361,7 +6356,7 @@
         <v>141</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
@@ -6370,7 +6365,7 @@
         <v>142</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6394,7 +6389,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6403,12 +6398,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6431,19 +6426,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6492,7 +6487,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6513,10 +6508,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6527,10 +6522,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6553,13 +6548,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6610,31 +6605,31 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6645,14 +6640,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6674,13 +6669,13 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6721,7 +6716,7 @@
         <v>141</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>20</v>
@@ -6730,7 +6725,7 @@
         <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6754,7 +6749,7 @@
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6763,12 +6758,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6794,23 +6789,23 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>20</v>
@@ -6852,7 +6847,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6873,10 +6868,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6887,10 +6882,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6913,16 +6908,16 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6972,7 +6967,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6993,24 +6988,24 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="B39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7036,21 +7031,21 @@
         <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>20</v>
@@ -7092,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7113,10 +7108,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -7127,10 +7122,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7153,17 +7148,17 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -7212,7 +7207,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7233,10 +7228,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -7247,10 +7242,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7273,19 +7268,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7334,7 +7329,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7355,10 +7350,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7369,10 +7364,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7395,19 +7390,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7456,7 +7451,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7477,28 +7472,28 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7517,19 +7512,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7557,10 +7552,10 @@
         <v>181</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7578,7 +7573,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>93</v>
@@ -7593,30 +7588,30 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7639,13 +7634,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7696,31 +7691,31 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7731,14 +7726,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7760,13 +7755,13 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7807,7 +7802,7 @@
         <v>141</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>20</v>
@@ -7816,7 +7811,7 @@
         <v>142</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7840,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7851,10 +7846,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7877,19 +7872,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7926,7 +7921,7 @@
         <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
@@ -7936,7 +7931,7 @@
         <v>142</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7957,10 +7952,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7971,13 +7966,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>20</v>
@@ -7999,19 +7994,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -8060,7 +8055,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8081,10 +8076,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -8095,10 +8090,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8121,13 +8116,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8178,31 +8173,31 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -8213,14 +8208,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8242,13 +8237,13 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8289,7 +8284,7 @@
         <v>141</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
@@ -8298,7 +8293,7 @@
         <v>142</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8322,7 +8317,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8333,10 +8328,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8362,23 +8357,23 @@
         <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>20</v>
@@ -8420,7 +8415,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8441,10 +8436,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8455,10 +8450,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8481,16 +8476,16 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8540,7 +8535,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8561,10 +8556,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8575,10 +8570,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8604,21 +8599,21 @@
         <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>20</v>
@@ -8660,7 +8655,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8681,10 +8676,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8695,10 +8690,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8721,17 +8716,17 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8780,7 +8775,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8801,10 +8796,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8815,10 +8810,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8841,19 +8836,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8902,7 +8897,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8923,10 +8918,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8937,10 +8932,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8963,19 +8958,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -9024,7 +9019,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9045,10 +9040,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -9057,12 +9052,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9085,19 +9080,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -9146,7 +9141,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9161,19 +9156,19 @@
         <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -9181,10 +9176,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9207,16 +9202,16 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9266,7 +9261,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9287,13 +9282,13 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -9301,14 +9296,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9327,19 +9322,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9388,7 +9383,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9403,34 +9398,34 @@
         <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AP58" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AO58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="B59" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9449,19 +9444,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9510,7 +9505,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9519,25 +9514,25 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AJ59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9545,10 +9540,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9571,16 +9566,16 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9630,7 +9625,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9651,13 +9646,13 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>20</v>
@@ -9665,10 +9660,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9691,17 +9686,17 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9750,7 +9745,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9765,19 +9760,19 @@
         <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>20</v>
@@ -9785,10 +9780,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9811,19 +9806,19 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9860,17 +9855,17 @@
         <v>20</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9879,7 +9874,7 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9888,30 +9883,30 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AN62" t="s" s="2">
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AO62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP62" t="s" s="2">
+      <c r="B63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>445</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>20</v>
@@ -9933,19 +9928,19 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9994,7 +9989,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10003,7 +9998,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -10012,27 +10007,27 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10055,13 +10050,13 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10112,31 +10107,31 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -10147,14 +10142,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10176,13 +10171,13 @@
         <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10223,7 +10218,7 @@
         <v>141</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>20</v>
@@ -10232,7 +10227,7 @@
         <v>142</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10256,7 +10251,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -10265,12 +10260,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10293,19 +10288,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10354,7 +10349,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10375,10 +10370,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10389,10 +10384,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10418,65 +10413,65 @@
         <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="P67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="R67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10497,24 +10492,24 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="B68" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10537,17 +10532,17 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10596,7 +10591,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10617,24 +10612,24 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="B69" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10660,72 +10655,72 @@
         <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10737,24 +10732,24 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10780,23 +10775,23 @@
         <v>113</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>20</v>
@@ -10838,7 +10833,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10859,10 +10854,10 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -10871,12 +10866,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10899,19 +10894,19 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10939,37 +10934,37 @@
         <v>181</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10984,7 +10979,7 @@
         <v>136</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10995,14 +10990,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11021,19 +11016,19 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -11062,7 +11057,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -11080,7 +11075,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11098,27 +11093,27 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11141,19 +11136,19 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -11202,7 +11197,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11223,10 +11218,10 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11237,10 +11232,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11263,16 +11258,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11298,13 +11293,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11322,7 +11317,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11340,27 +11335,27 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN74" t="s" s="2">
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AO74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="B75" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11383,19 +11378,19 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11424,7 +11419,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11442,7 +11437,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11463,10 +11458,10 @@
         <v>20</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11477,10 +11472,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11503,16 +11498,16 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11562,7 +11557,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11580,27 +11575,27 @@
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11623,16 +11618,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11682,7 +11677,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11700,27 +11695,27 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11743,19 +11738,19 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11804,7 +11799,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11816,19 +11811,19 @@
         <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11839,10 +11834,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11865,13 +11860,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11922,31 +11917,31 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
@@ -11957,14 +11952,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11986,13 +11981,13 @@
         <v>138</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12042,7 +12037,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12066,7 +12061,7 @@
         <v>20</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -12077,14 +12072,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12106,16 +12101,16 @@
         <v>138</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -12164,7 +12159,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12199,10 +12194,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12225,13 +12220,13 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12282,7 +12277,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12291,7 +12286,7 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12303,10 +12298,10 @@
         <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
@@ -12317,10 +12312,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12343,13 +12338,13 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12400,7 +12395,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12409,7 +12404,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12421,10 +12416,10 @@
         <v>20</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -12435,10 +12430,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12461,19 +12456,19 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12501,10 +12496,10 @@
         <v>117</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -12522,7 +12517,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12540,13 +12535,13 @@
         <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12557,10 +12552,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12583,19 +12578,19 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12620,13 +12615,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12644,7 +12639,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12662,13 +12657,13 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12679,10 +12674,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12705,17 +12700,17 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -12764,7 +12759,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12788,7 +12783,7 @@
         <v>20</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12799,10 +12794,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12825,13 +12820,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12882,7 +12877,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12903,10 +12898,10 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12917,10 +12912,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12943,16 +12938,16 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13002,7 +12997,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13023,10 +13018,10 @@
         <v>20</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
@@ -13037,10 +13032,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13063,16 +13058,16 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13122,7 +13117,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13143,10 +13138,10 @@
         <v>20</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -13155,12 +13150,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13183,19 +13178,19 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -13244,7 +13239,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13256,19 +13251,19 @@
         <v>20</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>20</v>
@@ -13279,10 +13274,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13305,13 +13300,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13362,31 +13357,31 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>20</v>
@@ -13397,14 +13392,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13426,13 +13421,13 @@
         <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13482,7 +13477,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13506,7 +13501,7 @@
         <v>20</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>20</v>
@@ -13517,14 +13512,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13546,16 +13541,16 @@
         <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13604,7 +13599,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13637,12 +13632,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13665,19 +13660,19 @@
         <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13705,10 +13700,10 @@
         <v>181</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13726,7 +13721,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>93</v>
@@ -13744,27 +13739,27 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN94" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AP94" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13787,19 +13782,19 @@
         <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="O95" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13824,40 +13819,40 @@
         <v>20</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13866,27 +13861,27 @@
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AN95" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>445</v>
-      </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13909,19 +13904,19 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>656</v>
-      </c>
       <c r="O96" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13949,10 +13944,10 @@
         <v>181</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
@@ -13970,7 +13965,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13979,7 +13974,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13994,7 +13989,7 @@
         <v>136</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
@@ -14005,14 +14000,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14031,19 +14026,19 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -14071,10 +14066,10 @@
         <v>181</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
@@ -14092,7 +14087,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14110,27 +14105,27 @@
         <v>20</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14156,16 +14151,16 @@
         <v>20</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -14214,7 +14209,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14235,10 +14230,10 @@
         <v>20</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>20</v>
@@ -14249,12 +14244,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP98">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-respiratory-rate.xlsx
+++ b/docs/StructureDefinition-respiratory-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
